--- a/src/assets/GSMs.xlsx
+++ b/src/assets/GSMs.xlsx
@@ -1,22 +1,22 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27628"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24332"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\Syriatel\NewTemplate\NewTemplate\src\assets\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\TFS\Syriatel\PCS\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5647CEBE-D4A1-444E-9036-621A0F473066}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EA9F4A49-55BA-4282-BF76-E13B52F97A45}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{270DF063-4D78-4A52-8DA2-A7D9B87D9F57}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11040" xr2:uid="{270DF063-4D78-4A52-8DA2-A7D9B87D9F57}"/>
   </bookViews>
   <sheets>
     <sheet name="GSMs" sheetId="1" r:id="rId1"/>
     <sheet name="Values" sheetId="2" r:id="rId2"/>
   </sheets>
-  <calcPr calcId="181029"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -26,13 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="61" uniqueCount="56">
-  <si>
-    <t>2G</t>
-  </si>
-  <si>
-    <t>3G</t>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="40" uniqueCount="38">
   <si>
     <t>GSM</t>
   </si>
@@ -40,12 +34,6 @@
     <t>LineType</t>
   </si>
   <si>
-    <t>Pre</t>
-  </si>
-  <si>
-    <t>Post</t>
-  </si>
-  <si>
     <t>CallStatus</t>
   </si>
   <si>
@@ -58,9 +46,6 @@
     <t>Generation</t>
   </si>
   <si>
-    <t>4G</t>
-  </si>
-  <si>
     <t>Region</t>
   </si>
   <si>
@@ -79,18 +64,6 @@
     <t>City</t>
   </si>
   <si>
-    <t>Aleppo</t>
-  </si>
-  <si>
-    <t>Damascus</t>
-  </si>
-  <si>
-    <t>Damascus Rural</t>
-  </si>
-  <si>
-    <t>Idleb</t>
-  </si>
-  <si>
     <t>Segment</t>
   </si>
   <si>
@@ -164,33 +137,6 @@
   </si>
   <si>
     <t>Northern</t>
-  </si>
-  <si>
-    <t>Deir Alzor</t>
-  </si>
-  <si>
-    <t>Hama</t>
-  </si>
-  <si>
-    <t>Hasakeh</t>
-  </si>
-  <si>
-    <t>Homs</t>
-  </si>
-  <si>
-    <t>Kounaitra</t>
-  </si>
-  <si>
-    <t>Latakia</t>
-  </si>
-  <si>
-    <t>Raqa</t>
-  </si>
-  <si>
-    <t>Sweida</t>
-  </si>
-  <si>
-    <t>Tartous</t>
   </si>
   <si>
     <t>Initialize</t>
@@ -265,15 +211,12 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -588,19 +531,20 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{38E92CD3-B684-451F-A705-974C10A95FBE}">
-  <dimension ref="A1:L22"/>
+  <dimension ref="A1:L21"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="N9" sqref="N9"/>
+      <selection activeCell="H13" sqref="H13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="5" style="3" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="9" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="29.85546875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="9.7109375" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="11" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="14.85546875" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="7.140625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="4.42578125" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="8.85546875" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="12.140625" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="7.28515625" bestFit="1" customWidth="1"/>
@@ -611,55 +555,44 @@
   <sheetData>
     <row r="1" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A1" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="B1" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="C1" s="2" t="s">
+      <c r="D1" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="E1" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="D1" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="E1" s="2" t="s">
+      <c r="F1" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="F1" s="2" t="s">
+      <c r="G1" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="H1" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="I1" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="J1" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="K1" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="G1" s="2" t="s">
-        <v>21</v>
-      </c>
-      <c r="H1" s="2" t="s">
-        <v>22</v>
-      </c>
-      <c r="I1" s="2" t="s">
-        <v>23</v>
-      </c>
-      <c r="J1" s="2" t="s">
-        <v>24</v>
-      </c>
-      <c r="K1" s="2" t="s">
-        <v>25</v>
-      </c>
       <c r="L1" s="2" t="s">
-        <v>26</v>
+        <v>17</v>
       </c>
     </row>
     <row r="2" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A2" s="1"/>
-      <c r="B2" s="1"/>
-      <c r="C2" s="1"/>
-      <c r="D2" s="1"/>
-      <c r="E2" s="1"/>
-      <c r="F2" s="1"/>
-      <c r="G2" s="1"/>
-      <c r="H2" s="1"/>
-      <c r="I2" s="1"/>
-      <c r="J2" s="1"/>
-      <c r="K2" s="1"/>
-      <c r="L2" s="1"/>
+      <c r="A2"/>
     </row>
     <row r="3" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A3"/>
@@ -688,323 +621,174 @@
     <row r="11" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A11"/>
     </row>
-    <row r="12" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A12"/>
+    <row r="20" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A20"/>
     </row>
     <row r="21" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A21"/>
-    </row>
-    <row r="22" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A22"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
-  <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{CCE6A557-97BC-4b89-ADB6-D9C93CAAB3DF}">
-      <x14:dataValidations xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" count="5">
-        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{3CBCAB86-D042-45A2-B7CE-1BEBCBD0ED9E}">
-          <x14:formula1>
-            <xm:f>Values!$A$2:$A$3</xm:f>
-          </x14:formula1>
-          <xm:sqref>B2</xm:sqref>
-        </x14:dataValidation>
-        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{0F5537CE-EFBB-4181-865C-3C60286E5A5D}">
-          <x14:formula1>
-            <xm:f>Values!$B$2:$B$22</xm:f>
-          </x14:formula1>
-          <xm:sqref>C2</xm:sqref>
-        </x14:dataValidation>
-        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{6A84E8CF-9C38-4301-A5EE-6F89340732C8}">
-          <x14:formula1>
-            <xm:f>Values!$C$2:$C$4</xm:f>
-          </x14:formula1>
-          <xm:sqref>D2</xm:sqref>
-        </x14:dataValidation>
-        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{DA28CCE6-0E7F-44C2-8313-436F495ABF35}">
-          <x14:formula1>
-            <xm:f>Values!$D$2:$D$6</xm:f>
-          </x14:formula1>
-          <xm:sqref>E2</xm:sqref>
-        </x14:dataValidation>
-        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{7C811C4C-C565-4069-BD0B-3F972648ABB3}">
-          <x14:formula1>
-            <xm:f>Values!$E$2:$E$14</xm:f>
-          </x14:formula1>
-          <xm:sqref>F2</xm:sqref>
-        </x14:dataValidation>
-      </x14:dataValidations>
-    </ext>
-  </extLst>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{84B0961B-323E-46CE-8D19-54C9F1C4CDE7}">
-  <dimension ref="A1:E22"/>
+  <dimension ref="A1:B22"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="I14" sqref="I14"/>
+      <selection activeCell="B1" sqref="A1:B1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="2" max="2" width="29.85546875" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="11" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="14.85546875" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="29.85546875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A1" s="5" t="s">
-        <v>3</v>
+    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A1" s="2" t="s">
+        <v>2</v>
       </c>
       <c r="B1" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="C1" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D1" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="E1" s="2" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A3" s="1" t="s">
         <v>4</v>
-      </c>
-      <c r="B2" s="1" t="s">
-        <v>55</v>
-      </c>
-      <c r="C2" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="D2" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="E2" s="1" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A3" s="1" t="s">
-        <v>5</v>
       </c>
       <c r="B3" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="C3" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="D3" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="E3" s="1" t="s">
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A4" s="1" t="s">
         <v>18</v>
       </c>
-    </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A4" s="1"/>
       <c r="B4" s="1" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A5" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="B5" s="1" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A6" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="B6" s="1" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A7" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="B7" s="1"/>
+    </row>
+    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A8" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="B8" s="1"/>
+    </row>
+    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A9" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="B9" s="1"/>
+    </row>
+    <row r="10" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A10" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="B10" s="1"/>
+    </row>
+    <row r="11" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A11" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="B11" s="1"/>
+    </row>
+    <row r="12" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A12" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="B12" s="1"/>
+    </row>
+    <row r="13" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A13" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="B13" s="1"/>
+    </row>
+    <row r="14" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A14" s="1" t="s">
         <v>27</v>
       </c>
-      <c r="C4" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="D4" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="E4" s="1" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A5" s="1"/>
-      <c r="B5" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="C5" s="1"/>
-      <c r="D5" s="1" t="s">
-        <v>45</v>
-      </c>
-      <c r="E5" s="1" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A6" s="1"/>
-      <c r="B6" s="1" t="s">
+      <c r="B14" s="1"/>
+    </row>
+    <row r="15" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A15" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="C6" s="1"/>
-      <c r="D6" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="E6" s="1" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A7" s="1"/>
-      <c r="B7" s="1" t="s">
+      <c r="B15" s="1"/>
+    </row>
+    <row r="16" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A16" s="1" t="s">
         <v>29</v>
       </c>
-      <c r="C7" s="1"/>
-      <c r="D7" s="1"/>
-      <c r="E7" s="1" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A8" s="1"/>
-      <c r="B8" s="1" t="s">
+      <c r="B16" s="1"/>
+    </row>
+    <row r="17" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A17" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="C8" s="1"/>
-      <c r="D8" s="1"/>
-      <c r="E8" s="1" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A9" s="1"/>
-      <c r="B9" s="1" t="s">
+      <c r="B17" s="1"/>
+    </row>
+    <row r="18" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A18" s="1" t="s">
         <v>31</v>
       </c>
-      <c r="C9" s="1"/>
-      <c r="D9" s="1"/>
-      <c r="E9" s="1" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A10" s="1"/>
-      <c r="B10" s="1" t="s">
+      <c r="B18" s="1"/>
+    </row>
+    <row r="19" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A19" s="1" t="s">
         <v>32</v>
       </c>
-      <c r="C10" s="1"/>
-      <c r="D10" s="1"/>
-      <c r="E10" s="1" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A11" s="1"/>
-      <c r="B11" s="1" t="s">
+      <c r="B19" s="1"/>
+    </row>
+    <row r="20" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A20" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="C11" s="1"/>
-      <c r="D11" s="1"/>
-      <c r="E11" s="1" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A12" s="1"/>
-      <c r="B12" s="1" t="s">
+      <c r="B20" s="1"/>
+    </row>
+    <row r="21" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A21" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="C12" s="1"/>
-      <c r="D12" s="1"/>
-      <c r="E12" s="1" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A13" s="1"/>
-      <c r="B13" s="1" t="s">
+      <c r="B21" s="1"/>
+    </row>
+    <row r="22" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A22" s="1" t="s">
         <v>35</v>
       </c>
-      <c r="C13" s="1"/>
-      <c r="D13" s="1"/>
-      <c r="E13" s="1" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A14" s="1"/>
-      <c r="B14" s="1" t="s">
-        <v>36</v>
-      </c>
-      <c r="C14" s="1"/>
-      <c r="D14" s="1"/>
-      <c r="E14" s="1" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A15" s="1"/>
-      <c r="B15" s="1" t="s">
-        <v>37</v>
-      </c>
-      <c r="C15" s="1"/>
-      <c r="D15" s="1"/>
-      <c r="E15" s="1"/>
-    </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A16" s="1"/>
-      <c r="B16" s="1" t="s">
-        <v>38</v>
-      </c>
-      <c r="C16" s="1"/>
-      <c r="D16" s="1"/>
-      <c r="E16" s="1"/>
-    </row>
-    <row r="17" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A17" s="1"/>
-      <c r="B17" s="1" t="s">
-        <v>39</v>
-      </c>
-      <c r="C17" s="1"/>
-      <c r="D17" s="1"/>
-      <c r="E17" s="1"/>
-    </row>
-    <row r="18" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A18" s="1"/>
-      <c r="B18" s="1" t="s">
-        <v>40</v>
-      </c>
-      <c r="C18" s="1"/>
-      <c r="D18" s="1"/>
-      <c r="E18" s="1"/>
-    </row>
-    <row r="19" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A19" s="1"/>
-      <c r="B19" s="1" t="s">
-        <v>41</v>
-      </c>
-      <c r="C19" s="1"/>
-      <c r="D19" s="1"/>
-      <c r="E19" s="1"/>
-    </row>
-    <row r="20" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A20" s="1"/>
-      <c r="B20" s="1" t="s">
-        <v>42</v>
-      </c>
-      <c r="C20" s="1"/>
-      <c r="D20" s="1"/>
-      <c r="E20" s="1"/>
-    </row>
-    <row r="21" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A21" s="1"/>
-      <c r="B21" s="1" t="s">
-        <v>43</v>
-      </c>
-      <c r="C21" s="1"/>
-      <c r="D21" s="1"/>
-      <c r="E21" s="1"/>
-    </row>
-    <row r="22" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A22" s="1"/>
-      <c r="B22" s="1" t="s">
-        <v>44</v>
-      </c>
-      <c r="C22" s="1"/>
-      <c r="D22" s="1"/>
-      <c r="E22" s="1"/>
+      <c r="B22" s="1"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/src/assets/GSMs.xlsx
+++ b/src/assets/GSMs.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\TFS\Syriatel\PCS\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EA9F4A49-55BA-4282-BF76-E13B52F97A45}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{65278330-A478-4916-BD36-A2E8628BD675}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11040" xr2:uid="{270DF063-4D78-4A52-8DA2-A7D9B87D9F57}"/>
   </bookViews>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="40" uniqueCount="38">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="61" uniqueCount="58">
   <si>
     <t>GSM</t>
   </si>
@@ -140,6 +140,66 @@
   </si>
   <si>
     <t>Initialize</t>
+  </si>
+  <si>
+    <t>A</t>
+  </si>
+  <si>
+    <t>E</t>
+  </si>
+  <si>
+    <t>P</t>
+  </si>
+  <si>
+    <t>S</t>
+  </si>
+  <si>
+    <t>R</t>
+  </si>
+  <si>
+    <t>F</t>
+  </si>
+  <si>
+    <t>L</t>
+  </si>
+  <si>
+    <t>M</t>
+  </si>
+  <si>
+    <t>C</t>
+  </si>
+  <si>
+    <t>B</t>
+  </si>
+  <si>
+    <t>D</t>
+  </si>
+  <si>
+    <t>G</t>
+  </si>
+  <si>
+    <t>H</t>
+  </si>
+  <si>
+    <t>I</t>
+  </si>
+  <si>
+    <t>J</t>
+  </si>
+  <si>
+    <t>K</t>
+  </si>
+  <si>
+    <t>N</t>
+  </si>
+  <si>
+    <t>O</t>
+  </si>
+  <si>
+    <t>Q</t>
+  </si>
+  <si>
+    <t>T</t>
   </si>
 </sst>
 </file>
@@ -534,7 +594,7 @@
   <dimension ref="A1:L21"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H13" sqref="H13"/>
+      <selection activeCell="I11" sqref="I11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -560,19 +620,19 @@
       <c r="B1" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="2" t="s">
+      <c r="C1" s="4" t="s">
         <v>2</v>
       </c>
       <c r="D1" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="E1" s="2" t="s">
+      <c r="E1" s="4" t="s">
         <v>6</v>
       </c>
       <c r="F1" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="G1" s="2" t="s">
+      <c r="G1" s="4" t="s">
         <v>12</v>
       </c>
       <c r="H1" s="2" t="s">
@@ -635,160 +695,225 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{84B0961B-323E-46CE-8D19-54C9F1C4CDE7}">
-  <dimension ref="A1:B22"/>
+  <dimension ref="A1:C22"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B1" sqref="A1:B1"/>
+    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection sqref="A1:C1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="29.85546875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="9.7109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A1" s="2" t="s">
         <v>2</v>
       </c>
       <c r="B1" s="2" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C1" s="2" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
         <v>37</v>
       </c>
       <c r="B2" s="1" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C2" s="1" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
         <v>4</v>
       </c>
       <c r="B3" s="1" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C3" s="1" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="s">
         <v>18</v>
       </c>
       <c r="B4" s="1" t="s">
         <v>9</v>
       </c>
-    </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C4" s="1" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A5" s="1" t="s">
         <v>3</v>
       </c>
       <c r="B5" s="1" t="s">
         <v>36</v>
       </c>
-    </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C5" s="1" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A6" s="1" t="s">
         <v>19</v>
       </c>
       <c r="B6" s="1" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C6" s="1" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A7" s="1" t="s">
         <v>20</v>
       </c>
       <c r="B7" s="1"/>
-    </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C7" s="1" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A8" s="1" t="s">
         <v>21</v>
       </c>
       <c r="B8" s="1"/>
-    </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C8" s="1" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A9" s="1" t="s">
         <v>22</v>
       </c>
       <c r="B9" s="1"/>
-    </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C9" s="1" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A10" s="1" t="s">
         <v>23</v>
       </c>
       <c r="B10" s="1"/>
-    </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C10" s="1" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A11" s="1" t="s">
         <v>24</v>
       </c>
       <c r="B11" s="1"/>
-    </row>
-    <row r="12" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C11" s="1" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A12" s="1" t="s">
         <v>25</v>
       </c>
       <c r="B12" s="1"/>
-    </row>
-    <row r="13" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C12" s="1" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A13" s="1" t="s">
         <v>26</v>
       </c>
       <c r="B13" s="1"/>
-    </row>
-    <row r="14" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C13" s="1" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A14" s="1" t="s">
         <v>27</v>
       </c>
       <c r="B14" s="1"/>
-    </row>
-    <row r="15" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C14" s="1" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A15" s="1" t="s">
         <v>28</v>
       </c>
       <c r="B15" s="1"/>
-    </row>
-    <row r="16" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C15" s="1" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="16" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A16" s="1" t="s">
         <v>29</v>
       </c>
       <c r="B16" s="1"/>
-    </row>
-    <row r="17" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C16" s="1" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A17" s="1" t="s">
         <v>30</v>
       </c>
       <c r="B17" s="1"/>
-    </row>
-    <row r="18" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C17" s="1" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A18" s="1" t="s">
         <v>31</v>
       </c>
       <c r="B18" s="1"/>
-    </row>
-    <row r="19" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C18" s="1" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="19" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A19" s="1" t="s">
         <v>32</v>
       </c>
       <c r="B19" s="1"/>
-    </row>
-    <row r="20" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C19" s="1" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="20" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A20" s="1" t="s">
         <v>33</v>
       </c>
       <c r="B20" s="1"/>
-    </row>
-    <row r="21" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C20" s="1" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="21" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A21" s="1" t="s">
         <v>34</v>
       </c>
       <c r="B21" s="1"/>
-    </row>
-    <row r="22" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C21" s="1" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="22" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A22" s="1" t="s">
         <v>35</v>
       </c>
       <c r="B22" s="1"/>
+      <c r="C22" s="1"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
